--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -28,7 +28,7 @@
     <t>2025-10-16</t>
   </si>
   <si>
-    <t>175462000</t>
+    <t>17499000</t>
   </si>
   <si>
     <t>0</t>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,8 +442,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>17390000</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,6 +459,20 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>17390000</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>17169000</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,6 +479,20 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>17169000</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>16899000</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,6 +502,20 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>16670000</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,6 +525,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>16670000</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>17100000</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,6 +545,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>17100000</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>17299000</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,6 +565,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>17299000</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>17599000</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,6 +585,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>17599000</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t>16999000</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,6 +605,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>16999000</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>17247100</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,6 +628,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>17571700</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,6 +648,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>17571700</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>17061600</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,6 +668,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>17061600</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>17190000</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,6 +688,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>17190000</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,6 +705,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>17285600</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,6 +725,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>17285600</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>17187000</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,6 +745,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>17187000</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>17382650</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,6 +765,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>17382650</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>17467800</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,6 +785,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>17467800</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>17449000</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,6 +805,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>17449000</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>17191000</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,6 +825,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>17191000</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>17420000</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,6 +845,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>17420000</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>17399000</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,6 +865,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>17399000</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>17380000</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,6 +885,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>17380000</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>17199000</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,6 +905,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>17199000</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>17330000</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,6 +925,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>17330000</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>17579900</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,6 +945,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>17579900</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>17750000</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,6 +965,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>17750000</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>17460500</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,6 +985,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>17460500</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>17584900</t>
   </si>
 </sst>
 </file>
@@ -576,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,6 +1005,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>17584900</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,6 +1022,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,6 +1039,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>17329000</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,6 +1059,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>17329000</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>17799000</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,6 +1079,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>17799000</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>26349000</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,6 +1099,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>26349000</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>25899000</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,6 +1119,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>25899000</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,6 +1136,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
+++ b/items/گوشی موبایل شیائومی مدل Redmi Note 14 4G.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>26199000</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,6 +1156,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
